--- a/branches/Richard/ValueSet-vs-cd4-percentage.xlsx
+++ b/branches/Richard/ValueSet-vs-cd4-percentage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T08:29:07+00:00</t>
+    <t>2023-02-28T11:17:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-cd4-percentage.xlsx
+++ b/branches/Richard/ValueSet-vs-cd4-percentage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T11:17:07+00:00</t>
+    <t>2023-02-28T11:22:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-cd4-percentage.xlsx
+++ b/branches/Richard/ValueSet-vs-cd4-percentage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T11:22:14+00:00</t>
+    <t>2023-03-01T08:28:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-cd4-percentage.xlsx
+++ b/branches/Richard/ValueSet-vs-cd4-percentage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T08:28:52+00:00</t>
+    <t>2023-03-01T12:48:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-cd4-percentage.xlsx
+++ b/branches/Richard/ValueSet-vs-cd4-percentage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T12:48:35+00:00</t>
+    <t>2023-03-01T12:49:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-cd4-percentage.xlsx
+++ b/branches/Richard/ValueSet-vs-cd4-percentage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T12:49:43+00:00</t>
+    <t>2023-03-01T13:24:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-cd4-percentage.xlsx
+++ b/branches/Richard/ValueSet-vs-cd4-percentage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T13:24:40+00:00</t>
+    <t>2023-03-02T06:03:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-cd4-percentage.xlsx
+++ b/branches/Richard/ValueSet-vs-cd4-percentage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:03:23+00:00</t>
+    <t>2023-03-02T06:46:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-cd4-percentage.xlsx
+++ b/branches/Richard/ValueSet-vs-cd4-percentage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:46:56+00:00</t>
+    <t>2023-03-02T06:53:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
